--- a/hod_korolya.xlsx
+++ b/hod_korolya.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02E55CA-C379-4D5D-B942-D8BE6DCFA3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD58A60F-6D2C-4E2D-A4AB-8C91BA4C3400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -361,13 +357,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="5.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="5.6640625" style="1" customWidth="1"/>
@@ -378,7 +374,7 @@
     <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2">
         <v>1</v>
       </c>
